--- a/3rd_week/matplt/example.xlsx
+++ b/3rd_week/matplt/example.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Балыкчы шаары" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Кош-Көл айылы" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Чолпон - Ата шаары" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,15 +22,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Өлчөө убактысы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30 — 10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.30 — 13.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.30 — 17.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6</t>
   </si>
 </sst>
 </file>
@@ -124,10 +147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -145,38 +168,74 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
+      <c r="A4" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>28</v>
+        <v>603</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -188,4 +247,218 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/3rd_week/matplt/example.xlsx
+++ b/3rd_week/matplt/example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t xml:space="preserve">Өлчөө убактысы</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">16.30 — 17.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6</t>
   </si>
 </sst>
 </file>
@@ -150,7 +147,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,7 +361,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,8 +436,8 @@
       <c r="B4" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
+      <c r="C4" s="0" t="n">
+        <v>36.6</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>28</v>
